--- a/交通費申請一覧機能/設計書/詳細設計書_共通部品クラス.xlsx
+++ b/交通費申請一覧機能/設計書/詳細設計書_共通部品クラス.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL43\Desktop\詳細設計書_交通費一覧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F02ED88-7363-41BE-A110-2147DE7D9057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF7398C-5268-4A1D-AD27-C15A1D42B3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3AAA092A-0C86-481B-836E-1D7AE057CA43}"/>
+    <workbookView xWindow="900" yWindow="0" windowWidth="13280" windowHeight="10050" xr2:uid="{3AAA092A-0C86-481B-836E-1D7AE057CA43}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_共通部品" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -623,30 +623,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -876,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,7 +887,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -919,19 +895,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -945,13 +921,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -972,75 +975,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1361,7 +1328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2985DD3-25A2-4AF3-8E41-D063AED6A1FD}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -1373,247 +1340,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="51" t="s">
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51"/>
-      <c r="BM1" s="51"/>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
+      <c r="BI1" s="38"/>
+      <c r="BJ1" s="38"/>
+      <c r="BK1" s="38"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="38"/>
+      <c r="BN1" s="38"/>
+      <c r="BO1" s="38"/>
+      <c r="BP1" s="38"/>
+      <c r="BQ1" s="38"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="37" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37" t="s">
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37" t="s">
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="54" t="s">
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="41"/>
+      <c r="BF2" s="41"/>
+      <c r="BG2" s="41"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BK2" s="54"/>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="54"/>
+      <c r="BK2" s="42"/>
+      <c r="BL2" s="42"/>
+      <c r="BM2" s="42"/>
+      <c r="BN2" s="42"/>
+      <c r="BO2" s="42"/>
+      <c r="BP2" s="42"/>
+      <c r="BQ2" s="42"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="55">
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="43">
         <v>45519</v>
       </c>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="55"/>
-      <c r="BB3" s="53" t="s">
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BC3" s="53"/>
-      <c r="BD3" s="53"/>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="53"/>
-      <c r="BG3" s="53"/>
-      <c r="BH3" s="53"/>
-      <c r="BI3" s="53"/>
-      <c r="BJ3" s="56">
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40"/>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40"/>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="44">
         <v>45533</v>
       </c>
-      <c r="BK3" s="56"/>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="56"/>
+      <c r="BK3" s="44"/>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="44"/>
+      <c r="BO3" s="44"/>
+      <c r="BP3" s="44"/>
+      <c r="BQ3" s="44"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -1680,215 +1647,215 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="48"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="48"/>
-      <c r="AZ6" s="48"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="48"/>
-      <c r="BC6" s="48"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="48"/>
-      <c r="BF6" s="48"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="48"/>
-      <c r="BI6" s="48"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="48"/>
-      <c r="BL6" s="48"/>
-      <c r="BM6" s="48"/>
-      <c r="BN6" s="48"/>
-      <c r="BO6" s="48"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="45"/>
+      <c r="AZ6" s="45"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="45"/>
+      <c r="BC6" s="45"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="45"/>
+      <c r="BF6" s="45"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="45"/>
+      <c r="BI6" s="45"/>
+      <c r="BJ6" s="45"/>
+      <c r="BK6" s="45"/>
+      <c r="BL6" s="45"/>
+      <c r="BM6" s="45"/>
+      <c r="BN6" s="45"/>
+      <c r="BO6" s="45"/>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="6"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="48"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
-      <c r="BJ7" s="48"/>
-      <c r="BK7" s="48"/>
-      <c r="BL7" s="48"/>
-      <c r="BM7" s="48"/>
-      <c r="BN7" s="48"/>
-      <c r="BO7" s="48"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="45"/>
+      <c r="BE7" s="45"/>
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
+      <c r="BJ7" s="45"/>
+      <c r="BK7" s="45"/>
+      <c r="BL7" s="45"/>
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="45"/>
+      <c r="BO7" s="45"/>
       <c r="BP7" s="8"/>
       <c r="BQ7" s="6"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="48"/>
-      <c r="AV8" s="48"/>
-      <c r="AW8" s="48"/>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="48"/>
-      <c r="AZ8" s="48"/>
-      <c r="BA8" s="48"/>
-      <c r="BB8" s="48"/>
-      <c r="BC8" s="48"/>
-      <c r="BD8" s="48"/>
-      <c r="BE8" s="48"/>
-      <c r="BF8" s="48"/>
-      <c r="BG8" s="48"/>
-      <c r="BH8" s="48"/>
-      <c r="BI8" s="48"/>
-      <c r="BJ8" s="48"/>
-      <c r="BK8" s="48"/>
-      <c r="BL8" s="48"/>
-      <c r="BM8" s="48"/>
-      <c r="BN8" s="48"/>
-      <c r="BO8" s="48"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="45"/>
+      <c r="AX8" s="45"/>
+      <c r="AY8" s="45"/>
+      <c r="AZ8" s="45"/>
+      <c r="BA8" s="45"/>
+      <c r="BB8" s="45"/>
+      <c r="BC8" s="45"/>
+      <c r="BD8" s="45"/>
+      <c r="BE8" s="45"/>
+      <c r="BF8" s="45"/>
+      <c r="BG8" s="45"/>
+      <c r="BH8" s="45"/>
+      <c r="BI8" s="45"/>
+      <c r="BJ8" s="45"/>
+      <c r="BK8" s="45"/>
+      <c r="BL8" s="45"/>
+      <c r="BM8" s="45"/>
+      <c r="BN8" s="45"/>
+      <c r="BO8" s="45"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="6"/>
     </row>
@@ -1941,307 +1908,307 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="36" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="38" t="s">
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="38"/>
-      <c r="AT11" s="38"/>
-      <c r="AU11" s="38"/>
-      <c r="AV11" s="38"/>
-      <c r="AW11" s="38"/>
-      <c r="AX11" s="38"/>
-      <c r="AY11" s="38"/>
-      <c r="AZ11" s="38"/>
-      <c r="BA11" s="38"/>
-      <c r="BB11" s="38"/>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="38"/>
-      <c r="BF11" s="38"/>
-      <c r="BG11" s="38"/>
-      <c r="BH11" s="38"/>
-      <c r="BI11" s="38"/>
-      <c r="BJ11" s="38"/>
-      <c r="BK11" s="38"/>
-      <c r="BL11" s="38"/>
-      <c r="BM11" s="38"/>
-      <c r="BN11" s="38"/>
-      <c r="BO11" s="38"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="46"/>
+      <c r="AR11" s="46"/>
+      <c r="AS11" s="46"/>
+      <c r="AT11" s="46"/>
+      <c r="AU11" s="46"/>
+      <c r="AV11" s="46"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="46"/>
+      <c r="BC11" s="46"/>
+      <c r="BD11" s="46"/>
+      <c r="BE11" s="46"/>
+      <c r="BF11" s="46"/>
+      <c r="BG11" s="46"/>
+      <c r="BH11" s="46"/>
+      <c r="BI11" s="46"/>
+      <c r="BJ11" s="46"/>
+      <c r="BK11" s="46"/>
+      <c r="BL11" s="46"/>
+      <c r="BM11" s="46"/>
+      <c r="BN11" s="46"/>
+      <c r="BO11" s="46"/>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="38"/>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="38"/>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="38"/>
-      <c r="BG12" s="38"/>
-      <c r="BH12" s="38"/>
-      <c r="BI12" s="38"/>
-      <c r="BJ12" s="38"/>
-      <c r="BK12" s="38"/>
-      <c r="BL12" s="38"/>
-      <c r="BM12" s="38"/>
-      <c r="BN12" s="38"/>
-      <c r="BO12" s="38"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="46"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="46"/>
+      <c r="BI12" s="46"/>
+      <c r="BJ12" s="46"/>
+      <c r="BK12" s="46"/>
+      <c r="BL12" s="46"/>
+      <c r="BM12" s="46"/>
+      <c r="BN12" s="46"/>
+      <c r="BO12" s="46"/>
       <c r="BP12" s="8"/>
       <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
-      <c r="AY13" s="38"/>
-      <c r="AZ13" s="38"/>
-      <c r="BA13" s="38"/>
-      <c r="BB13" s="38"/>
-      <c r="BC13" s="38"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="38"/>
-      <c r="BG13" s="38"/>
-      <c r="BH13" s="38"/>
-      <c r="BI13" s="38"/>
-      <c r="BJ13" s="38"/>
-      <c r="BK13" s="38"/>
-      <c r="BL13" s="38"/>
-      <c r="BM13" s="38"/>
-      <c r="BN13" s="38"/>
-      <c r="BO13" s="38"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="46"/>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="46"/>
+      <c r="BB13" s="46"/>
+      <c r="BC13" s="46"/>
+      <c r="BD13" s="46"/>
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="46"/>
+      <c r="BG13" s="46"/>
+      <c r="BH13" s="46"/>
+      <c r="BI13" s="46"/>
+      <c r="BJ13" s="46"/>
+      <c r="BK13" s="46"/>
+      <c r="BL13" s="46"/>
+      <c r="BM13" s="46"/>
+      <c r="BN13" s="46"/>
+      <c r="BO13" s="46"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="45" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
-      <c r="AQ14" s="45"/>
-      <c r="AR14" s="45"/>
-      <c r="AS14" s="45"/>
-      <c r="AT14" s="45"/>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="45"/>
-      <c r="BB14" s="45"/>
-      <c r="BC14" s="45"/>
-      <c r="BD14" s="45"/>
-      <c r="BE14" s="45"/>
-      <c r="BF14" s="45"/>
-      <c r="BG14" s="45"/>
-      <c r="BH14" s="45"/>
-      <c r="BI14" s="45"/>
-      <c r="BJ14" s="45"/>
-      <c r="BK14" s="45"/>
-      <c r="BL14" s="45"/>
-      <c r="BM14" s="45"/>
-      <c r="BN14" s="45"/>
-      <c r="BO14" s="45"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
+      <c r="AQ14" s="47"/>
+      <c r="AR14" s="47"/>
+      <c r="AS14" s="47"/>
+      <c r="AT14" s="47"/>
+      <c r="AU14" s="47"/>
+      <c r="AV14" s="47"/>
+      <c r="AW14" s="47"/>
+      <c r="AX14" s="47"/>
+      <c r="AY14" s="47"/>
+      <c r="AZ14" s="47"/>
+      <c r="BA14" s="47"/>
+      <c r="BB14" s="47"/>
+      <c r="BC14" s="47"/>
+      <c r="BD14" s="47"/>
+      <c r="BE14" s="47"/>
+      <c r="BF14" s="47"/>
+      <c r="BG14" s="47"/>
+      <c r="BH14" s="47"/>
+      <c r="BI14" s="47"/>
+      <c r="BJ14" s="47"/>
+      <c r="BK14" s="47"/>
+      <c r="BL14" s="47"/>
+      <c r="BM14" s="47"/>
+      <c r="BN14" s="47"/>
+      <c r="BO14" s="47"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="6"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="46"/>
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
@@ -2307,11 +2274,11 @@
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
@@ -2377,11 +2344,11 @@
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
@@ -2447,11 +2414,11 @@
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
@@ -2517,11 +2484,11 @@
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
@@ -2587,11 +2554,11 @@
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
@@ -2657,71 +2624,71 @@
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="47"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="47"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="47"/>
-      <c r="AL21" s="47"/>
-      <c r="AM21" s="47"/>
-      <c r="AN21" s="47"/>
-      <c r="AO21" s="47"/>
-      <c r="AP21" s="47"/>
-      <c r="AQ21" s="47"/>
-      <c r="AR21" s="47"/>
-      <c r="AS21" s="47"/>
-      <c r="AT21" s="47"/>
-      <c r="AU21" s="47"/>
-      <c r="AV21" s="47"/>
-      <c r="AW21" s="47"/>
-      <c r="AX21" s="47"/>
-      <c r="AY21" s="47"/>
-      <c r="AZ21" s="47"/>
-      <c r="BA21" s="47"/>
-      <c r="BB21" s="47"/>
-      <c r="BC21" s="47"/>
-      <c r="BD21" s="47"/>
-      <c r="BE21" s="47"/>
-      <c r="BF21" s="47"/>
-      <c r="BG21" s="47"/>
-      <c r="BH21" s="47"/>
-      <c r="BI21" s="47"/>
-      <c r="BJ21" s="47"/>
-      <c r="BK21" s="47"/>
-      <c r="BL21" s="47"/>
-      <c r="BM21" s="47"/>
-      <c r="BN21" s="47"/>
-      <c r="BO21" s="47"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="46"/>
+      <c r="AT21" s="46"/>
+      <c r="AU21" s="46"/>
+      <c r="AV21" s="46"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="46"/>
+      <c r="AY21" s="46"/>
+      <c r="AZ21" s="46"/>
+      <c r="BA21" s="46"/>
+      <c r="BB21" s="46"/>
+      <c r="BC21" s="46"/>
+      <c r="BD21" s="46"/>
+      <c r="BE21" s="46"/>
+      <c r="BF21" s="46"/>
+      <c r="BG21" s="46"/>
+      <c r="BH21" s="46"/>
+      <c r="BI21" s="46"/>
+      <c r="BJ21" s="46"/>
+      <c r="BK21" s="46"/>
+      <c r="BL21" s="46"/>
+      <c r="BM21" s="46"/>
+      <c r="BN21" s="46"/>
+      <c r="BO21" s="46"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="6"/>
     </row>
@@ -2751,738 +2718,738 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37" t="s">
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="38" t="s">
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="36" t="s">
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="36"/>
-      <c r="AS25" s="36"/>
-      <c r="AT25" s="36"/>
-      <c r="AU25" s="36"/>
-      <c r="AV25" s="36"/>
-      <c r="AW25" s="36"/>
-      <c r="AX25" s="36"/>
-      <c r="AY25" s="36"/>
-      <c r="AZ25" s="36"/>
-      <c r="BA25" s="36"/>
-      <c r="BB25" s="36"/>
-      <c r="BC25" s="36"/>
-      <c r="BD25" s="36" t="s">
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="45"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="45"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="45"/>
+      <c r="AU25" s="45"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
+      <c r="BB25" s="45"/>
+      <c r="BC25" s="45"/>
+      <c r="BD25" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="BE25" s="36"/>
-      <c r="BF25" s="36"/>
-      <c r="BG25" s="36"/>
-      <c r="BH25" s="36"/>
-      <c r="BI25" s="36"/>
-      <c r="BJ25" s="36"/>
-      <c r="BK25" s="36"/>
-      <c r="BL25" s="36"/>
-      <c r="BM25" s="36"/>
-      <c r="BN25" s="36"/>
-      <c r="BO25" s="36"/>
+      <c r="BE25" s="45"/>
+      <c r="BF25" s="45"/>
+      <c r="BG25" s="45"/>
+      <c r="BH25" s="45"/>
+      <c r="BI25" s="45"/>
+      <c r="BJ25" s="45"/>
+      <c r="BK25" s="45"/>
+      <c r="BL25" s="45"/>
+      <c r="BM25" s="45"/>
+      <c r="BN25" s="45"/>
+      <c r="BO25" s="45"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="C26" s="37">
+      <c r="C26" s="41">
         <v>1</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="39" t="s">
+      <c r="D26" s="41"/>
+      <c r="E26" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="42" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="39" t="s">
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="40"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="40"/>
-      <c r="AS26" s="40"/>
-      <c r="AT26" s="40"/>
-      <c r="AU26" s="40"/>
-      <c r="AV26" s="40"/>
-      <c r="AW26" s="40"/>
-      <c r="AX26" s="40"/>
-      <c r="AY26" s="40"/>
-      <c r="AZ26" s="40"/>
-      <c r="BA26" s="40"/>
-      <c r="BB26" s="40"/>
-      <c r="BC26" s="41"/>
-      <c r="BD26" s="39"/>
-      <c r="BE26" s="40"/>
-      <c r="BF26" s="40"/>
-      <c r="BG26" s="40"/>
-      <c r="BH26" s="40"/>
-      <c r="BI26" s="40"/>
-      <c r="BJ26" s="40"/>
-      <c r="BK26" s="40"/>
-      <c r="BL26" s="40"/>
-      <c r="BM26" s="40"/>
-      <c r="BN26" s="40"/>
-      <c r="BO26" s="41"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="49"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="50"/>
+      <c r="BD26" s="48"/>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="49"/>
+      <c r="BN26" s="49"/>
+      <c r="BO26" s="50"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="C27" s="37">
+      <c r="C27" s="41">
         <v>2</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="36"/>
-      <c r="AR27" s="36"/>
-      <c r="AS27" s="36"/>
-      <c r="AT27" s="36"/>
-      <c r="AU27" s="36"/>
-      <c r="AV27" s="36"/>
-      <c r="AW27" s="36"/>
-      <c r="AX27" s="36"/>
-      <c r="AY27" s="36"/>
-      <c r="AZ27" s="36"/>
-      <c r="BA27" s="36"/>
-      <c r="BB27" s="36"/>
-      <c r="BC27" s="36"/>
-      <c r="BD27" s="36"/>
-      <c r="BE27" s="36"/>
-      <c r="BF27" s="36"/>
-      <c r="BG27" s="36"/>
-      <c r="BH27" s="36"/>
-      <c r="BI27" s="36"/>
-      <c r="BJ27" s="36"/>
-      <c r="BK27" s="36"/>
-      <c r="BL27" s="36"/>
-      <c r="BM27" s="36"/>
-      <c r="BN27" s="36"/>
-      <c r="BO27" s="36"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="45"/>
+      <c r="AW27" s="45"/>
+      <c r="AX27" s="45"/>
+      <c r="AY27" s="45"/>
+      <c r="AZ27" s="45"/>
+      <c r="BA27" s="45"/>
+      <c r="BB27" s="45"/>
+      <c r="BC27" s="45"/>
+      <c r="BD27" s="45"/>
+      <c r="BE27" s="45"/>
+      <c r="BF27" s="45"/>
+      <c r="BG27" s="45"/>
+      <c r="BH27" s="45"/>
+      <c r="BI27" s="45"/>
+      <c r="BJ27" s="45"/>
+      <c r="BK27" s="45"/>
+      <c r="BL27" s="45"/>
+      <c r="BM27" s="45"/>
+      <c r="BN27" s="45"/>
+      <c r="BO27" s="45"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="C28" s="37">
+      <c r="C28" s="41">
         <v>3</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="36"/>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="36"/>
-      <c r="AW28" s="36"/>
-      <c r="AX28" s="36"/>
-      <c r="AY28" s="36"/>
-      <c r="AZ28" s="36"/>
-      <c r="BA28" s="36"/>
-      <c r="BB28" s="36"/>
-      <c r="BC28" s="36"/>
-      <c r="BD28" s="36"/>
-      <c r="BE28" s="36"/>
-      <c r="BF28" s="36"/>
-      <c r="BG28" s="36"/>
-      <c r="BH28" s="36"/>
-      <c r="BI28" s="36"/>
-      <c r="BJ28" s="36"/>
-      <c r="BK28" s="36"/>
-      <c r="BL28" s="36"/>
-      <c r="BM28" s="36"/>
-      <c r="BN28" s="36"/>
-      <c r="BO28" s="36"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="45"/>
+      <c r="AP28" s="45"/>
+      <c r="AQ28" s="45"/>
+      <c r="AR28" s="45"/>
+      <c r="AS28" s="45"/>
+      <c r="AT28" s="45"/>
+      <c r="AU28" s="45"/>
+      <c r="AV28" s="45"/>
+      <c r="AW28" s="45"/>
+      <c r="AX28" s="45"/>
+      <c r="AY28" s="45"/>
+      <c r="AZ28" s="45"/>
+      <c r="BA28" s="45"/>
+      <c r="BB28" s="45"/>
+      <c r="BC28" s="45"/>
+      <c r="BD28" s="45"/>
+      <c r="BE28" s="45"/>
+      <c r="BF28" s="45"/>
+      <c r="BG28" s="45"/>
+      <c r="BH28" s="45"/>
+      <c r="BI28" s="45"/>
+      <c r="BJ28" s="45"/>
+      <c r="BK28" s="45"/>
+      <c r="BL28" s="45"/>
+      <c r="BM28" s="45"/>
+      <c r="BN28" s="45"/>
+      <c r="BO28" s="45"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="6"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="C29" s="37">
+      <c r="C29" s="41">
         <v>4</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="36"/>
-      <c r="AQ29" s="36"/>
-      <c r="AR29" s="36"/>
-      <c r="AS29" s="36"/>
-      <c r="AT29" s="36"/>
-      <c r="AU29" s="36"/>
-      <c r="AV29" s="36"/>
-      <c r="AW29" s="36"/>
-      <c r="AX29" s="36"/>
-      <c r="AY29" s="36"/>
-      <c r="AZ29" s="36"/>
-      <c r="BA29" s="36"/>
-      <c r="BB29" s="36"/>
-      <c r="BC29" s="36"/>
-      <c r="BD29" s="36"/>
-      <c r="BE29" s="36"/>
-      <c r="BF29" s="36"/>
-      <c r="BG29" s="36"/>
-      <c r="BH29" s="36"/>
-      <c r="BI29" s="36"/>
-      <c r="BJ29" s="36"/>
-      <c r="BK29" s="36"/>
-      <c r="BL29" s="36"/>
-      <c r="BM29" s="36"/>
-      <c r="BN29" s="36"/>
-      <c r="BO29" s="36"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="46"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="45"/>
+      <c r="AQ29" s="45"/>
+      <c r="AR29" s="45"/>
+      <c r="AS29" s="45"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="45"/>
+      <c r="AV29" s="45"/>
+      <c r="AW29" s="45"/>
+      <c r="AX29" s="45"/>
+      <c r="AY29" s="45"/>
+      <c r="AZ29" s="45"/>
+      <c r="BA29" s="45"/>
+      <c r="BB29" s="45"/>
+      <c r="BC29" s="45"/>
+      <c r="BD29" s="45"/>
+      <c r="BE29" s="45"/>
+      <c r="BF29" s="45"/>
+      <c r="BG29" s="45"/>
+      <c r="BH29" s="45"/>
+      <c r="BI29" s="45"/>
+      <c r="BJ29" s="45"/>
+      <c r="BK29" s="45"/>
+      <c r="BL29" s="45"/>
+      <c r="BM29" s="45"/>
+      <c r="BN29" s="45"/>
+      <c r="BO29" s="45"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="6"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="C30" s="37">
+      <c r="C30" s="41">
         <v>5</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="36"/>
-      <c r="AP30" s="36"/>
-      <c r="AQ30" s="36"/>
-      <c r="AR30" s="36"/>
-      <c r="AS30" s="36"/>
-      <c r="AT30" s="36"/>
-      <c r="AU30" s="36"/>
-      <c r="AV30" s="36"/>
-      <c r="AW30" s="36"/>
-      <c r="AX30" s="36"/>
-      <c r="AY30" s="36"/>
-      <c r="AZ30" s="36"/>
-      <c r="BA30" s="36"/>
-      <c r="BB30" s="36"/>
-      <c r="BC30" s="36"/>
-      <c r="BD30" s="36"/>
-      <c r="BE30" s="36"/>
-      <c r="BF30" s="36"/>
-      <c r="BG30" s="36"/>
-      <c r="BH30" s="36"/>
-      <c r="BI30" s="36"/>
-      <c r="BJ30" s="36"/>
-      <c r="BK30" s="36"/>
-      <c r="BL30" s="36"/>
-      <c r="BM30" s="36"/>
-      <c r="BN30" s="36"/>
-      <c r="BO30" s="36"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="45"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="45"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
+      <c r="AT30" s="45"/>
+      <c r="AU30" s="45"/>
+      <c r="AV30" s="45"/>
+      <c r="AW30" s="45"/>
+      <c r="AX30" s="45"/>
+      <c r="AY30" s="45"/>
+      <c r="AZ30" s="45"/>
+      <c r="BA30" s="45"/>
+      <c r="BB30" s="45"/>
+      <c r="BC30" s="45"/>
+      <c r="BD30" s="45"/>
+      <c r="BE30" s="45"/>
+      <c r="BF30" s="45"/>
+      <c r="BG30" s="45"/>
+      <c r="BH30" s="45"/>
+      <c r="BI30" s="45"/>
+      <c r="BJ30" s="45"/>
+      <c r="BK30" s="45"/>
+      <c r="BL30" s="45"/>
+      <c r="BM30" s="45"/>
+      <c r="BN30" s="45"/>
+      <c r="BO30" s="45"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="6"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="C31" s="37">
+      <c r="C31" s="41">
         <v>6</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="36"/>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="36"/>
-      <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="36"/>
-      <c r="AQ31" s="36"/>
-      <c r="AR31" s="36"/>
-      <c r="AS31" s="36"/>
-      <c r="AT31" s="36"/>
-      <c r="AU31" s="36"/>
-      <c r="AV31" s="36"/>
-      <c r="AW31" s="36"/>
-      <c r="AX31" s="36"/>
-      <c r="AY31" s="36"/>
-      <c r="AZ31" s="36"/>
-      <c r="BA31" s="36"/>
-      <c r="BB31" s="36"/>
-      <c r="BC31" s="36"/>
-      <c r="BD31" s="36"/>
-      <c r="BE31" s="36"/>
-      <c r="BF31" s="36"/>
-      <c r="BG31" s="36"/>
-      <c r="BH31" s="36"/>
-      <c r="BI31" s="36"/>
-      <c r="BJ31" s="36"/>
-      <c r="BK31" s="36"/>
-      <c r="BL31" s="36"/>
-      <c r="BM31" s="36"/>
-      <c r="BN31" s="36"/>
-      <c r="BO31" s="36"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="45"/>
+      <c r="AV31" s="45"/>
+      <c r="AW31" s="45"/>
+      <c r="AX31" s="45"/>
+      <c r="AY31" s="45"/>
+      <c r="AZ31" s="45"/>
+      <c r="BA31" s="45"/>
+      <c r="BB31" s="45"/>
+      <c r="BC31" s="45"/>
+      <c r="BD31" s="45"/>
+      <c r="BE31" s="45"/>
+      <c r="BF31" s="45"/>
+      <c r="BG31" s="45"/>
+      <c r="BH31" s="45"/>
+      <c r="BI31" s="45"/>
+      <c r="BJ31" s="45"/>
+      <c r="BK31" s="45"/>
+      <c r="BL31" s="45"/>
+      <c r="BM31" s="45"/>
+      <c r="BN31" s="45"/>
+      <c r="BO31" s="45"/>
       <c r="BP31" s="8"/>
       <c r="BQ31" s="6"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="C32" s="37">
+      <c r="C32" s="41">
         <v>7</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="36"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="36"/>
-      <c r="AR32" s="36"/>
-      <c r="AS32" s="36"/>
-      <c r="AT32" s="36"/>
-      <c r="AU32" s="36"/>
-      <c r="AV32" s="36"/>
-      <c r="AW32" s="36"/>
-      <c r="AX32" s="36"/>
-      <c r="AY32" s="36"/>
-      <c r="AZ32" s="36"/>
-      <c r="BA32" s="36"/>
-      <c r="BB32" s="36"/>
-      <c r="BC32" s="36"/>
-      <c r="BD32" s="36"/>
-      <c r="BE32" s="36"/>
-      <c r="BF32" s="36"/>
-      <c r="BG32" s="36"/>
-      <c r="BH32" s="36"/>
-      <c r="BI32" s="36"/>
-      <c r="BJ32" s="36"/>
-      <c r="BK32" s="36"/>
-      <c r="BL32" s="36"/>
-      <c r="BM32" s="36"/>
-      <c r="BN32" s="36"/>
-      <c r="BO32" s="36"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="45"/>
+      <c r="AV32" s="45"/>
+      <c r="AW32" s="45"/>
+      <c r="AX32" s="45"/>
+      <c r="AY32" s="45"/>
+      <c r="AZ32" s="45"/>
+      <c r="BA32" s="45"/>
+      <c r="BB32" s="45"/>
+      <c r="BC32" s="45"/>
+      <c r="BD32" s="45"/>
+      <c r="BE32" s="45"/>
+      <c r="BF32" s="45"/>
+      <c r="BG32" s="45"/>
+      <c r="BH32" s="45"/>
+      <c r="BI32" s="45"/>
+      <c r="BJ32" s="45"/>
+      <c r="BK32" s="45"/>
+      <c r="BL32" s="45"/>
+      <c r="BM32" s="45"/>
+      <c r="BN32" s="45"/>
+      <c r="BO32" s="45"/>
       <c r="BP32" s="8"/>
       <c r="BQ32" s="6"/>
     </row>
     <row r="33" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="C33" s="37">
+      <c r="C33" s="41">
         <v>8</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="36"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="36"/>
-      <c r="AR33" s="36"/>
-      <c r="AS33" s="36"/>
-      <c r="AT33" s="36"/>
-      <c r="AU33" s="36"/>
-      <c r="AV33" s="36"/>
-      <c r="AW33" s="36"/>
-      <c r="AX33" s="36"/>
-      <c r="AY33" s="36"/>
-      <c r="AZ33" s="36"/>
-      <c r="BA33" s="36"/>
-      <c r="BB33" s="36"/>
-      <c r="BC33" s="36"/>
-      <c r="BD33" s="36"/>
-      <c r="BE33" s="36"/>
-      <c r="BF33" s="36"/>
-      <c r="BG33" s="36"/>
-      <c r="BH33" s="36"/>
-      <c r="BI33" s="36"/>
-      <c r="BJ33" s="36"/>
-      <c r="BK33" s="36"/>
-      <c r="BL33" s="36"/>
-      <c r="BM33" s="36"/>
-      <c r="BN33" s="36"/>
-      <c r="BO33" s="36"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="45"/>
+      <c r="AX33" s="45"/>
+      <c r="AY33" s="45"/>
+      <c r="AZ33" s="45"/>
+      <c r="BA33" s="45"/>
+      <c r="BB33" s="45"/>
+      <c r="BC33" s="45"/>
+      <c r="BD33" s="45"/>
+      <c r="BE33" s="45"/>
+      <c r="BF33" s="45"/>
+      <c r="BG33" s="45"/>
+      <c r="BH33" s="45"/>
+      <c r="BI33" s="45"/>
+      <c r="BJ33" s="45"/>
+      <c r="BK33" s="45"/>
+      <c r="BL33" s="45"/>
+      <c r="BM33" s="45"/>
+      <c r="BN33" s="45"/>
+      <c r="BO33" s="45"/>
       <c r="BP33" s="8"/>
       <c r="BQ33" s="6"/>
     </row>
     <row r="34" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="37">
+      <c r="C34" s="41">
         <v>9</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="36"/>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="36"/>
-      <c r="AW34" s="36"/>
-      <c r="AX34" s="36"/>
-      <c r="AY34" s="36"/>
-      <c r="AZ34" s="36"/>
-      <c r="BA34" s="36"/>
-      <c r="BB34" s="36"/>
-      <c r="BC34" s="36"/>
-      <c r="BD34" s="36"/>
-      <c r="BE34" s="36"/>
-      <c r="BF34" s="36"/>
-      <c r="BG34" s="36"/>
-      <c r="BH34" s="36"/>
-      <c r="BI34" s="36"/>
-      <c r="BJ34" s="36"/>
-      <c r="BK34" s="36"/>
-      <c r="BL34" s="36"/>
-      <c r="BM34" s="36"/>
-      <c r="BN34" s="36"/>
-      <c r="BO34" s="36"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="45"/>
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="45"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="45"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="45"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="45"/>
+      <c r="AU34" s="45"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
+      <c r="BB34" s="45"/>
+      <c r="BC34" s="45"/>
+      <c r="BD34" s="45"/>
+      <c r="BE34" s="45"/>
+      <c r="BF34" s="45"/>
+      <c r="BG34" s="45"/>
+      <c r="BH34" s="45"/>
+      <c r="BI34" s="45"/>
+      <c r="BJ34" s="45"/>
+      <c r="BK34" s="45"/>
+      <c r="BL34" s="45"/>
+      <c r="BM34" s="45"/>
+      <c r="BN34" s="45"/>
+      <c r="BO34" s="45"/>
       <c r="BP34" s="8"/>
       <c r="BQ34" s="6"/>
     </row>
@@ -4081,6 +4048,86 @@
     <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="BD33:BO33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BO34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD31:BO31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BO32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD29:BO29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BO30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="BD27:BO27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:AD28"/>
+    <mergeCell ref="AE28:BC28"/>
+    <mergeCell ref="BD28:BO28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:AD27"/>
+    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="BD25:BO25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BO26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -4095,86 +4142,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="BD25:BO25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BO26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD27:BO27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:AD28"/>
-    <mergeCell ref="AE28:BC28"/>
-    <mergeCell ref="BD28:BO28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:AD27"/>
-    <mergeCell ref="AE27:BC27"/>
-    <mergeCell ref="BD29:BO29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BO30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:AD29"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="BD31:BO31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BO32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD33:BO33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BO34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4196,7 +4163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3DF20B-9EDD-4265-A662-252E21A2E7CE}">
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4213,125 +4180,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="63" t="s">
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="63"/>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="63"/>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="63"/>
-      <c r="BH1" s="63"/>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="63"/>
-      <c r="BM1" s="63"/>
-      <c r="BN1" s="63"/>
-      <c r="BO1" s="63"/>
-      <c r="BP1" s="63"/>
-      <c r="BQ1" s="63"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
       <c r="AK2" s="58" t="s">
         <v>25</v>
       </c>
@@ -4363,97 +4330,97 @@
       <c r="BG2" s="58"/>
       <c r="BH2" s="58"/>
       <c r="BI2" s="58"/>
-      <c r="BJ2" s="65" t="s">
+      <c r="BJ2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="BK2" s="65"/>
-      <c r="BL2" s="65"/>
-      <c r="BM2" s="65"/>
-      <c r="BN2" s="65"/>
-      <c r="BO2" s="65"/>
-      <c r="BP2" s="65"/>
-      <c r="BQ2" s="65"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
+      <c r="BQ2" s="60"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="66" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="67">
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="62">
         <v>45519</v>
       </c>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
-      <c r="BB3" s="66" t="s">
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="64">
+      <c r="BC3" s="61"/>
+      <c r="BD3" s="61"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="61"/>
+      <c r="BG3" s="61"/>
+      <c r="BH3" s="61"/>
+      <c r="BI3" s="61"/>
+      <c r="BJ3" s="59">
         <v>45533</v>
       </c>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="64"/>
-      <c r="BM3" s="64"/>
-      <c r="BN3" s="64"/>
-      <c r="BO3" s="64"/>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="59"/>
+      <c r="BN3" s="59"/>
+      <c r="BO3" s="59"/>
+      <c r="BP3" s="59"/>
+      <c r="BQ3" s="59"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4478,94 +4445,94 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="68" t="s">
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="68"/>
-      <c r="AK6" s="68"/>
-      <c r="AL6" s="68"/>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="36" t="s">
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
-      <c r="AS6" s="36"/>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="36"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36"/>
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="36"/>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
-      <c r="BH6" s="36"/>
-      <c r="BI6" s="36"/>
-      <c r="BJ6" s="36"/>
-      <c r="BK6" s="36"/>
-      <c r="BL6" s="36"/>
-      <c r="BM6" s="36"/>
-      <c r="BN6" s="36"/>
-      <c r="BO6" s="36"/>
-      <c r="BP6" s="36"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="45"/>
+      <c r="AZ6" s="45"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="45"/>
+      <c r="BC6" s="45"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="45"/>
+      <c r="BF6" s="45"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="45"/>
+      <c r="BI6" s="45"/>
+      <c r="BJ6" s="45"/>
+      <c r="BK6" s="45"/>
+      <c r="BL6" s="45"/>
+      <c r="BM6" s="45"/>
+      <c r="BN6" s="45"/>
+      <c r="BO6" s="45"/>
+      <c r="BP6" s="45"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
       <c r="M7" s="35" t="s">
         <v>35</v>
       </c>
@@ -4596,34 +4563,34 @@
       <c r="AL7" s="33"/>
       <c r="AM7" s="33"/>
       <c r="AN7" s="32"/>
-      <c r="AO7" s="36"/>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="36"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="36"/>
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="36"/>
-      <c r="BM7" s="36"/>
-      <c r="BN7" s="36"/>
-      <c r="BO7" s="36"/>
-      <c r="BP7" s="36"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="45"/>
+      <c r="BE7" s="45"/>
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
+      <c r="BJ7" s="45"/>
+      <c r="BK7" s="45"/>
+      <c r="BL7" s="45"/>
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="45"/>
+      <c r="BO7" s="45"/>
+      <c r="BP7" s="45"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -4637,10 +4604,10 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="58" t="s">
         <v>46</v>
       </c>
@@ -4661,65 +4628,65 @@
       </c>
       <c r="U10" s="58"/>
       <c r="V10" s="58"/>
-      <c r="W10" s="37" t="s">
+      <c r="W10" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="37"/>
-      <c r="AW10" s="37"/>
-      <c r="AX10" s="37"/>
-      <c r="AY10" s="37"/>
-      <c r="AZ10" s="37"/>
-      <c r="BA10" s="37"/>
-      <c r="BB10" s="37"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="37"/>
-      <c r="BE10" s="37"/>
-      <c r="BF10" s="37"/>
-      <c r="BG10" s="37"/>
-      <c r="BH10" s="37"/>
-      <c r="BI10" s="37"/>
-      <c r="BJ10" s="37" t="s">
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="41"/>
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="41"/>
+      <c r="AV10" s="41"/>
+      <c r="AW10" s="41"/>
+      <c r="AX10" s="41"/>
+      <c r="AY10" s="41"/>
+      <c r="AZ10" s="41"/>
+      <c r="BA10" s="41"/>
+      <c r="BB10" s="41"/>
+      <c r="BC10" s="41"/>
+      <c r="BD10" s="41"/>
+      <c r="BE10" s="41"/>
+      <c r="BF10" s="41"/>
+      <c r="BG10" s="41"/>
+      <c r="BH10" s="41"/>
+      <c r="BI10" s="41"/>
+      <c r="BJ10" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="37"/>
-      <c r="BL10" s="37"/>
-      <c r="BM10" s="37"/>
-      <c r="BN10" s="37"/>
-      <c r="BO10" s="37"/>
-      <c r="BP10" s="37"/>
+      <c r="BK10" s="41"/>
+      <c r="BL10" s="41"/>
+      <c r="BM10" s="41"/>
+      <c r="BN10" s="41"/>
+      <c r="BO10" s="41"/>
+      <c r="BP10" s="41"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="35" t="s">
         <v>53</v>
       </c>
@@ -4791,10 +4758,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="35"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -4859,10 +4826,10 @@
       <c r="BP12" s="29"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="35"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -4927,10 +4894,10 @@
       <c r="BP13" s="29"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="35"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
@@ -4995,10 +4962,10 @@
       <c r="BP14" s="29"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="35"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
@@ -5074,10 +5041,10 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="58" t="s">
         <v>41</v>
       </c>
@@ -5098,64 +5065,64 @@
       </c>
       <c r="U18" s="58"/>
       <c r="V18" s="58"/>
-      <c r="W18" s="37" t="s">
+      <c r="W18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="37"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="37"/>
-      <c r="AZ18" s="37"/>
-      <c r="BA18" s="37"/>
-      <c r="BB18" s="37"/>
-      <c r="BC18" s="37"/>
-      <c r="BD18" s="37"/>
-      <c r="BE18" s="37"/>
-      <c r="BF18" s="37"/>
-      <c r="BG18" s="37"/>
-      <c r="BH18" s="37"/>
-      <c r="BI18" s="37"/>
-      <c r="BJ18" s="37" t="s">
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="41"/>
+      <c r="AV18" s="41"/>
+      <c r="AW18" s="41"/>
+      <c r="AX18" s="41"/>
+      <c r="AY18" s="41"/>
+      <c r="AZ18" s="41"/>
+      <c r="BA18" s="41"/>
+      <c r="BB18" s="41"/>
+      <c r="BC18" s="41"/>
+      <c r="BD18" s="41"/>
+      <c r="BE18" s="41"/>
+      <c r="BF18" s="41"/>
+      <c r="BG18" s="41"/>
+      <c r="BH18" s="41"/>
+      <c r="BI18" s="41"/>
+      <c r="BJ18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="37"/>
-      <c r="BL18" s="37"/>
-      <c r="BM18" s="37"/>
-      <c r="BN18" s="37"/>
-      <c r="BO18" s="37"/>
-      <c r="BP18" s="37"/>
+      <c r="BK18" s="41"/>
+      <c r="BL18" s="41"/>
+      <c r="BM18" s="41"/>
+      <c r="BN18" s="41"/>
+      <c r="BO18" s="41"/>
+      <c r="BP18" s="41"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="35" t="s">
         <v>55</v>
       </c>
@@ -5696,13 +5663,28 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:BP7"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -5717,28 +5699,13 @@
     <mergeCell ref="AK3:AS3"/>
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:BP7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
